--- a/Web/Content/example/MileStoneExample.xlsx
+++ b/Web/Content/example/MileStoneExample.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benson922\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benson922\Documents\irentapi20\Web\Content\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12465" yWindow="6750" windowWidth="14400" windowHeight="7665"/>
+    <workbookView xWindow="12468" yWindow="6756" windowWidth="14400" windowHeight="7668"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,6 +51,10 @@
   </si>
   <si>
     <t>Advice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>備註</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -415,27 +419,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -443,7 +450,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -451,7 +458,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -459,7 +466,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -470,6 +477,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>